--- a/Data/prematurity/HIV Prev Rates.xlsx
+++ b/Data/prematurity/HIV Prev Rates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://righttocare-my.sharepoint.com/personal/shida_nyimbili_righttocare-zambia_org/Documents/Documents/RTCZ/RTCZ/R/RTCZ/Data/prematurity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="13_ncr:1_{8C4A9628-F9D0-48CF-91E6-4D4ABF6F6774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5AE1AB1B-62F8-4641-A95F-C1C8517E7902}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{8C4A9628-F9D0-48CF-91E6-4D4ABF6F6774}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4EFA57C-B464-488A-AB54-CF473C4D0E74}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{4BD495E6-FE54-44A5-A826-CAC0CE25EC13}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4BD495E6-FE54-44A5-A826-CAC0CE25EC13}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -448,13 +448,13 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C41"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.08984375" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
